--- a/biology/Botanique/Trentepohlia_aurea/Trentepohlia_aurea.xlsx
+++ b/biology/Botanique/Trentepohlia_aurea/Trentepohlia_aurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à ce que sa couleur pourrait laisser penser, Trentepohlia aurea est une espèce d'algues vertes filamenteuses. La couleur orange est due à l'accumulation dans les cellules algales de pigments caroténoïdes masquant la couleur verte des chlorophylles. 
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition géographique
-Trentepohlia aurea est une espèce cosmopolite. 
-Habitat et substrat
-Comme les autres représentants du genre Trentepohlia, Trentepohlia aurea est une algue terrestre saxicole (sur les rochers ou des substrats équivalents : mur, pierre, toit, brique, etc.). Elle est aussi une algue symbiotique contenue dans certains lichens.
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trentepohlia aurea est une espèce cosmopolite. 
 </t>
         </is>
       </c>
@@ -542,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Habitat et substrat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres représentants du genre Trentepohlia, Trentepohlia aurea est une algue terrestre saxicole (sur les rochers ou des substrats équivalents : mur, pierre, toit, brique, etc.). Elle est aussi une algue symbiotique contenue dans certains lichens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trentepohlia_aurea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trentepohlia_aurea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martius donne le nom du genre en 1817 en hommage au botaniste allemand Johann Friedrich Trentepohl (de)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martius donne le nom du genre en 1817 en hommage au botaniste allemand Johann Friedrich Trentepohl (de).
 </t>
         </is>
       </c>
